--- a/GPR/Test_g0/00_DotProduct/content/results/metrics_4_9.xlsx
+++ b/GPR/Test_g0/00_DotProduct/content/results/metrics_4_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,197 +508,393 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_3</t>
+          <t>model_4_9_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6749428231139657</v>
+        <v>0.6577829411989171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5030889808135698</v>
+        <v>0.5145148933922934</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5957373817624729</v>
+        <v>0.6300213118657425</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4442420448974368</v>
+        <v>0.003938449663360211</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6900389274903543</v>
+        <v>0.7264663235132783</v>
       </c>
       <c r="G2" t="n">
-        <v>3.322846273364514</v>
+        <v>3.246441143339099</v>
       </c>
       <c r="H2" t="n">
-        <v>1.446023944942222</v>
+        <v>1.323392314859312</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8963609706501762</v>
+        <v>1.254985058055389</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456585624232454</v>
+        <v>1.609518485921455</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8306858175570078</v>
+        <v>0.8523299381772755</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5573689506232724</v>
+        <v>0.5340023029091637</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8437682888023589</v>
+        <v>0.865753282686213</v>
       </c>
       <c r="N2" t="n">
-        <v>34.74201453265901</v>
+        <v>34.63912630293402</v>
       </c>
       <c r="O2" t="n">
-        <v>71.70659812088483</v>
+        <v>71.60370989115985</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_1</t>
+          <t>model_4_9_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6748081974579841</v>
+        <v>0.6584769011725052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5028643860923815</v>
+        <v>0.5144980676084647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6116457668329401</v>
+        <v>0.6297284726594986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4564948172277575</v>
+        <v>0.01043897023314777</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6903247139607721</v>
+        <v>0.7249931691578406</v>
       </c>
       <c r="G3" t="n">
-        <v>3.324348139299263</v>
+        <v>3.246553657433037</v>
       </c>
       <c r="H3" t="n">
-        <v>1.389120573966327</v>
+        <v>1.324439783720254</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8765989379193354</v>
+        <v>1.24679474473398</v>
       </c>
       <c r="J3" t="n">
-        <v>1.373000044987247</v>
+        <v>1.604980266060384</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8308578181378401</v>
+        <v>0.8514653070782394</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5571856305810848</v>
+        <v>0.5349472696817092</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8439429982204018</v>
+        <v>0.8648750345116811</v>
       </c>
       <c r="N3" t="n">
-        <v>34.74118638429022</v>
+        <v>34.64318609204621</v>
       </c>
       <c r="O3" t="n">
-        <v>71.70576997251604</v>
+        <v>71.60776968027203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_2</t>
+          <t>model_4_9_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6746502835942834</v>
+        <v>0.6592034850503102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5020611090968031</v>
+        <v>0.514466535042607</v>
       </c>
       <c r="D4" t="n">
-        <v>0.596177448347964</v>
+        <v>0.6294060259805392</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4423218765579052</v>
+        <v>0.01727171051100451</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6906599371796155</v>
+        <v>0.7234507600205455</v>
       </c>
       <c r="G4" t="n">
-        <v>3.329719656267446</v>
+        <v>3.246764515846122</v>
       </c>
       <c r="H4" t="n">
-        <v>1.444449852282447</v>
+        <v>1.325593156794359</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8994579374876849</v>
+        <v>1.238185852089359</v>
       </c>
       <c r="J4" t="n">
-        <v>1.454360083849378</v>
+        <v>1.600203806975752</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8310595268569007</v>
+        <v>0.8505590867309252</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5569705989368965</v>
+        <v>0.5359366604940394</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8441478836501528</v>
+        <v>0.8639545420997846</v>
       </c>
       <c r="N4" t="n">
-        <v>34.7402154155683</v>
+        <v>34.64744558649879</v>
       </c>
       <c r="O4" t="n">
-        <v>71.70479900379412</v>
+        <v>71.61202917472461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>model_4_9_4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6599646662569809</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5144206417606104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6290509231989063</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02445967727306864</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7218349068696982</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.247071404434152</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.326863338854217</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.229129392796115</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.595172815265365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8496086786690084</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5369731625626974</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8629891660609521</v>
+      </c>
+      <c r="N5" t="n">
+        <v>34.65191765416296</v>
+      </c>
+      <c r="O5" t="n">
+        <v>71.61650124238878</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>model_4_9_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6675406816311249</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5130544743778643</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6245653356137814</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09792664461700384</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7057523654118995</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.256206972013198</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.342908025556897</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.136564885867682</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.543187179591462</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.840090688802048</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.547289438816851</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8533212773680864</v>
+      </c>
+      <c r="N6" t="n">
+        <v>34.69698172045107</v>
+      </c>
+      <c r="O6" t="n">
+        <v>71.66156530867688</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>model_4_9_2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6687033835189</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5126857197692998</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6237221093195513</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1095741846167438</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7032841548302494</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.258672835778627</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.345924197118288</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.121889599327572</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.534821946316081</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8386203877978697</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5488726924512681</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8518278205928541</v>
+      </c>
+      <c r="N7" t="n">
+        <v>34.70398853133419</v>
+      </c>
+      <c r="O7" t="n">
+        <v>71.66857211956001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>model_4_9_1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6783310148560959</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5076950715634917</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6148793824936865</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2120443018211733</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6828463953387233</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.292045323310688</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.377554118243646</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9927826521260852</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.458927654510225</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8263452034947159</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5619826585274498</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8393593144076079</v>
+      </c>
+      <c r="N8" t="n">
+        <v>34.76297068343904</v>
+      </c>
+      <c r="O8" t="n">
+        <v>71.72755427166486</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>model_4_9_0</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.6455802867679766</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5001720405843209</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5997694708584035</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5751087294499363</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7523704018564363</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.342351866108776</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.431601396040038</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6852910483679105</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.33441261034485</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.867392876300259</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5173859224074575</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8810534470272195</v>
-      </c>
-      <c r="N5" t="n">
-        <v>34.56905304127573</v>
-      </c>
-      <c r="O5" t="n">
-        <v>71.53363662950154</v>
+      <c r="B9" t="n">
+        <v>0.6814829919367783</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.505155150654686</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6110360582509862</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2492236038300792</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6761553051586385</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.309029786123133</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.391301466211041</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9459386910532618</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.4301306678814</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8222866319955825</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5662747124245492</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8352368244644464</v>
+      </c>
+      <c r="N9" t="n">
+        <v>34.78266497593349</v>
+      </c>
+      <c r="O9" t="n">
+        <v>71.74724856415931</v>
       </c>
     </row>
   </sheetData>
